--- a/SchedulingData/dynamic13/pso/scheduling1_13.xlsx
+++ b/SchedulingData/dynamic13/pso/scheduling1_13.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>74.3</v>
+        <v>63.56</v>
       </c>
       <c r="E2" t="n">
-        <v>27.2</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>83.56</v>
+        <v>55.2</v>
       </c>
       <c r="E3" t="n">
-        <v>26.304</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="4">
@@ -504,36 +504,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>49.8</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>26.22</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>44.88</v>
+        <v>42.2</v>
       </c>
       <c r="E5" t="n">
-        <v>27.192</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="6">
@@ -542,55 +542,55 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>63.56</v>
       </c>
       <c r="D6" t="n">
-        <v>51.56</v>
+        <v>126.26</v>
       </c>
       <c r="E6" t="n">
-        <v>27.504</v>
+        <v>22.144</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>51.56</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>96.94</v>
+        <v>62.6</v>
       </c>
       <c r="E7" t="n">
-        <v>24.096</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>44.88</v>
+        <v>126.26</v>
       </c>
       <c r="D8" t="n">
-        <v>92.8</v>
+        <v>180.96</v>
       </c>
       <c r="E8" t="n">
-        <v>24.02</v>
+        <v>18.304</v>
       </c>
     </row>
     <row r="9">
@@ -599,55 +599,55 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>96.94</v>
+        <v>180.96</v>
       </c>
       <c r="D9" t="n">
-        <v>150.14</v>
+        <v>227.62</v>
       </c>
       <c r="E9" t="n">
-        <v>21.896</v>
+        <v>14.768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>227.62</v>
       </c>
       <c r="D10" t="n">
-        <v>62.6</v>
+        <v>287.62</v>
       </c>
       <c r="E10" t="n">
-        <v>25.92</v>
+        <v>11.888</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.8</v>
+        <v>55.2</v>
       </c>
       <c r="D11" t="n">
-        <v>112.72</v>
+        <v>98.5</v>
       </c>
       <c r="E11" t="n">
-        <v>22.528</v>
+        <v>24.94</v>
       </c>
     </row>
     <row r="12">
@@ -656,93 +656,93 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>112.72</v>
+        <v>73.81999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>160.26</v>
+        <v>152.72</v>
       </c>
       <c r="E12" t="n">
-        <v>19.404</v>
+        <v>22.008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>62.6</v>
+        <v>98.5</v>
       </c>
       <c r="D13" t="n">
-        <v>116.02</v>
+        <v>144.76</v>
       </c>
       <c r="E13" t="n">
-        <v>21.708</v>
+        <v>22.444</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>150.14</v>
+        <v>62.6</v>
       </c>
       <c r="D14" t="n">
-        <v>206.7</v>
+        <v>112.98</v>
       </c>
       <c r="E14" t="n">
-        <v>18.36</v>
+        <v>22.512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92.8</v>
+        <v>42.2</v>
       </c>
       <c r="D15" t="n">
-        <v>165.18</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>20.852</v>
+        <v>24.04</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>116.02</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>175.52</v>
+        <v>130.34</v>
       </c>
       <c r="E16" t="n">
-        <v>17.868</v>
+        <v>20.916</v>
       </c>
     </row>
     <row r="17">
@@ -755,32 +755,32 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>74.3</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>150.5</v>
+        <v>42.3</v>
       </c>
       <c r="E17" t="n">
-        <v>24.16</v>
+        <v>26.96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>165.18</v>
+        <v>130.34</v>
       </c>
       <c r="D18" t="n">
-        <v>215.12</v>
+        <v>196.3</v>
       </c>
       <c r="E18" t="n">
-        <v>16.988</v>
+        <v>16.94</v>
       </c>
     </row>
     <row r="19">
@@ -789,17 +789,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>83.56</v>
+        <v>196.3</v>
       </c>
       <c r="D19" t="n">
-        <v>146.26</v>
+        <v>257.06</v>
       </c>
       <c r="E19" t="n">
-        <v>22.144</v>
+        <v>13.464</v>
       </c>
     </row>
     <row r="20">
@@ -808,17 +808,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>215.12</v>
+        <v>144.76</v>
       </c>
       <c r="D20" t="n">
-        <v>255.32</v>
+        <v>201.32</v>
       </c>
       <c r="E20" t="n">
-        <v>13.608</v>
+        <v>18.908</v>
       </c>
     </row>
     <row r="21">
@@ -827,55 +827,55 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>255.32</v>
+        <v>201.32</v>
       </c>
       <c r="D21" t="n">
-        <v>302.3</v>
+        <v>254.24</v>
       </c>
       <c r="E21" t="n">
-        <v>10.54</v>
+        <v>15.736</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>175.52</v>
+        <v>152.72</v>
       </c>
       <c r="D22" t="n">
-        <v>218.88</v>
+        <v>254.42</v>
       </c>
       <c r="E22" t="n">
-        <v>14.172</v>
+        <v>18.408</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>302.3</v>
+        <v>42.3</v>
       </c>
       <c r="D23" t="n">
-        <v>347.1</v>
+        <v>116.1</v>
       </c>
       <c r="E23" t="n">
-        <v>7.68</v>
+        <v>24.16</v>
       </c>
     </row>
     <row r="24">
@@ -884,131 +884,131 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>218.88</v>
+        <v>112.98</v>
       </c>
       <c r="D24" t="n">
-        <v>265.58</v>
+        <v>212.58</v>
       </c>
       <c r="E24" t="n">
-        <v>10.632</v>
+        <v>17.652</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>150.5</v>
+        <v>254.42</v>
       </c>
       <c r="D25" t="n">
-        <v>201.02</v>
+        <v>302.68</v>
       </c>
       <c r="E25" t="n">
-        <v>21.248</v>
+        <v>14.712</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>206.7</v>
+        <v>116.1</v>
       </c>
       <c r="D26" t="n">
-        <v>276.7</v>
+        <v>163.66</v>
       </c>
       <c r="E26" t="n">
-        <v>13.5</v>
+        <v>21.024</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>160.26</v>
+        <v>257.06</v>
       </c>
       <c r="D27" t="n">
-        <v>229.96</v>
+        <v>312.16</v>
       </c>
       <c r="E27" t="n">
-        <v>16.044</v>
+        <v>10.084</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>146.26</v>
+        <v>163.66</v>
       </c>
       <c r="D28" t="n">
-        <v>206.46</v>
+        <v>236.88</v>
       </c>
       <c r="E28" t="n">
-        <v>19.704</v>
+        <v>17.332</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>201.02</v>
+        <v>302.68</v>
       </c>
       <c r="D29" t="n">
-        <v>247.52</v>
+        <v>347.68</v>
       </c>
       <c r="E29" t="n">
-        <v>17.728</v>
+        <v>11.352</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>276.7</v>
+        <v>236.88</v>
       </c>
       <c r="D30" t="n">
-        <v>321.7</v>
+        <v>293.58</v>
       </c>
       <c r="E30" t="n">
-        <v>10.62</v>
+        <v>13.792</v>
       </c>
     </row>
     <row r="31">
@@ -1017,207 +1017,207 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>347.1</v>
+        <v>254.24</v>
       </c>
       <c r="D31" t="n">
-        <v>426.94</v>
+        <v>320.82</v>
       </c>
       <c r="E31" t="n">
-        <v>3.816</v>
+        <v>12.668</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>229.96</v>
+        <v>293.58</v>
       </c>
       <c r="D32" t="n">
-        <v>300.62</v>
+        <v>343.52</v>
       </c>
       <c r="E32" t="n">
-        <v>12.068</v>
+        <v>9.928000000000001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>265.58</v>
+        <v>347.68</v>
       </c>
       <c r="D33" t="n">
-        <v>320.48</v>
+        <v>418.78</v>
       </c>
       <c r="E33" t="n">
-        <v>7.772</v>
+        <v>7.332</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>247.52</v>
+        <v>212.58</v>
       </c>
       <c r="D34" t="n">
-        <v>318.26</v>
+        <v>255.66</v>
       </c>
       <c r="E34" t="n">
-        <v>14.764</v>
+        <v>14.484</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>300.62</v>
+        <v>255.66</v>
       </c>
       <c r="D35" t="n">
-        <v>347.22</v>
+        <v>305.14</v>
       </c>
       <c r="E35" t="n">
-        <v>8.048</v>
+        <v>11.156</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>206.46</v>
+        <v>287.62</v>
       </c>
       <c r="D36" t="n">
-        <v>288.26</v>
+        <v>332.42</v>
       </c>
       <c r="E36" t="n">
-        <v>16.104</v>
+        <v>9.028</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>288.26</v>
+        <v>343.52</v>
       </c>
       <c r="D37" t="n">
-        <v>332.72</v>
+        <v>403.46</v>
       </c>
       <c r="E37" t="n">
-        <v>13.288</v>
+        <v>6.064</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>332.72</v>
+        <v>320.82</v>
       </c>
       <c r="D38" t="n">
-        <v>385.38</v>
+        <v>375</v>
       </c>
       <c r="E38" t="n">
-        <v>10.152</v>
+        <v>9.859999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>318.26</v>
+        <v>332.42</v>
       </c>
       <c r="D39" t="n">
-        <v>369.92</v>
+        <v>393.46</v>
       </c>
       <c r="E39" t="n">
-        <v>11.228</v>
+        <v>6.064</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>321.7</v>
+        <v>305.14</v>
       </c>
       <c r="D40" t="n">
-        <v>377.86</v>
+        <v>365.26</v>
       </c>
       <c r="E40" t="n">
-        <v>7.144</v>
+        <v>8.244</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>320.48</v>
+        <v>403.46</v>
       </c>
       <c r="D41" t="n">
-        <v>370.06</v>
+        <v>447.92</v>
       </c>
       <c r="E41" t="n">
-        <v>4.444</v>
+        <v>3.248</v>
       </c>
     </row>
   </sheetData>
